--- a/Documents/Proj1_control_signals.xlsx
+++ b/Documents/Proj1_control_signals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhk123/Documents/Teaching/CprE381_sp2019/TermProject/Proj2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colto\Desktop\CprE 381\CprE381\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FEAA03-7A1D-E045-AB67-C9F2E8E67365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B6A36-3A5D-4461-87F2-3F4054697E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>Instruction</t>
   </si>
@@ -68,142 +68,275 @@
     <t>"001000"</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi writes back to a register]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi uses rt as destination register rather than rd]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">s_DMemWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[MemWrite from text]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">s_RegWr </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[RegWrite from text]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi does NOT write to memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[addi does NOT read from memory]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[use the appropriately extended immediate as source B]</t>
-    </r>
-  </si>
-  <si>
     <t>ALUControl</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">0010 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[the alu will perform an add of A and B]</t>
-    </r>
+    <t>add</t>
+  </si>
+  <si>
+    <t>"000000"</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>addiu</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>repl.qb</t>
+  </si>
+  <si>
+    <t>"100001"</t>
+  </si>
+  <si>
+    <t>"100000"</t>
+  </si>
+  <si>
+    <t>"001001"</t>
+  </si>
+  <si>
+    <t>"001100"</t>
+  </si>
+  <si>
+    <t>"001111"</t>
+  </si>
+  <si>
+    <t>"100011"</t>
+  </si>
+  <si>
+    <t>"001110"</t>
+  </si>
+  <si>
+    <t>"001101"</t>
+  </si>
+  <si>
+    <t>"001010"</t>
+  </si>
+  <si>
+    <t>"101011"</t>
+  </si>
+  <si>
+    <t>"000100"</t>
+  </si>
+  <si>
+    <t>"000101"</t>
+  </si>
+  <si>
+    <t>"000010"</t>
+  </si>
+  <si>
+    <t>"000011"</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>"100100"</t>
+  </si>
+  <si>
+    <t>"100110"</t>
+  </si>
+  <si>
+    <t>"100111"</t>
+  </si>
+  <si>
+    <t>"100101"</t>
+  </si>
+  <si>
+    <t>"101010"</t>
+  </si>
+  <si>
+    <t>"100010"</t>
+  </si>
+  <si>
+    <t>1 uses immediate, 0 uses register</t>
+  </si>
+  <si>
+    <t>1 reads from memory, 0 reads from ALU</t>
+  </si>
+  <si>
+    <t>1 write to memory, 0 read from memory</t>
+  </si>
+  <si>
+    <t>1 allows writing to reg file, 0 does not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_RegWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_MemWE </t>
+  </si>
+  <si>
+    <t>1 if needs rd, 0 if does not</t>
+  </si>
+  <si>
+    <t>i_Signed</t>
+  </si>
+  <si>
+    <t>1 is signed value, 0 is unsigned value</t>
+  </si>
+  <si>
+    <t>subi</t>
+  </si>
+  <si>
+    <t>subiu</t>
+  </si>
+  <si>
+    <t>"0001"</t>
+  </si>
+  <si>
+    <t>"1111"</t>
+  </si>
+  <si>
+    <t>"0000"</t>
+  </si>
+  <si>
+    <t>"0010"</t>
+  </si>
+  <si>
+    <t>"0011"</t>
+  </si>
+  <si>
+    <t>"1000"</t>
+  </si>
+  <si>
+    <t>"1010"</t>
+  </si>
+  <si>
+    <t>"0110"</t>
+  </si>
+  <si>
+    <t>"0101"</t>
+  </si>
+  <si>
+    <t>"0111"</t>
+  </si>
+  <si>
+    <t>"0100"</t>
+  </si>
+  <si>
+    <t>"1001"</t>
+  </si>
+  <si>
+    <t>"1011"</t>
+  </si>
+  <si>
+    <t>"1100"</t>
+  </si>
+  <si>
+    <t>"1101"</t>
+  </si>
+  <si>
+    <t>"1110"</t>
+  </si>
+  <si>
+    <t>Binary value</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NOTHING</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>*This may not need to be an option because it is a pseduoinstruction*</t>
+  </si>
+  <si>
+    <t>*This means it is a R-Type or J-Type instruction and the Funct will be passsed into the ALU Control*</t>
+  </si>
+  <si>
+    <t>ALU Control</t>
+  </si>
+  <si>
+    <t>Jump</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>4-bits sent ot ALU Control for immediates</t>
+  </si>
+  <si>
+    <t>1 is branching, 0 is not</t>
+  </si>
+  <si>
+    <t>1 is jumping, 0 means not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,7 +345,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -240,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +395,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -269,6 +427,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C2973D-A9B2-4790-9558-A2333E750E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2804160" y="2971800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,119 +779,1321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="32" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:O1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Proj1_control_signals.xlsx
+++ b/Documents/Proj1_control_signals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colto\Desktop\CprE 381\CprE381\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colto\Desktop\CprE381\CprE381\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094B6A36-3A5D-4461-87F2-3F4054697E4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F815F-0E98-4ADD-A7B6-D8421192D7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
   <si>
     <t>Instruction</t>
   </si>
@@ -242,18 +242,9 @@
     <t>1 is signed value, 0 is unsigned value</t>
   </si>
   <si>
-    <t>subi</t>
-  </si>
-  <si>
-    <t>subiu</t>
-  </si>
-  <si>
     <t>"0001"</t>
   </si>
   <si>
-    <t>"1111"</t>
-  </si>
-  <si>
     <t>"0000"</t>
   </si>
   <si>
@@ -330,6 +321,18 @@
   </si>
   <si>
     <t>1 is jumping, 0 means not</t>
+  </si>
+  <si>
+    <t>"001011"</t>
+  </si>
+  <si>
+    <t>Opcode</t>
+  </si>
+  <si>
+    <t>*These two don't have the 4th bit equal to 1 because of branching</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,14 +403,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,7 +448,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -779,13 +785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -805,42 +811,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>62</v>
@@ -858,16 +864,16 @@
         <v>69</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -890,10 +896,10 @@
         <v>68</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>7</v>
@@ -913,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -954,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -968,8 +974,8 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
+      <c r="J5" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1007,8 +1013,8 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
+      <c r="J6" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
@@ -1031,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1069,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1083,8 +1089,8 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
+      <c r="J8" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -1107,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1145,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1183,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1235,8 +1241,8 @@
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
+      <c r="J12" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K12" s="5">
         <v>0</v>
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1273,8 +1279,8 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
+      <c r="J13" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -1297,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1335,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1349,8 +1355,8 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="5">
-        <v>0</v>
+      <c r="J15" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -1369,9 +1375,11 @@
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16"/>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1409,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1423,8 +1431,8 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="5">
-        <v>0</v>
+      <c r="J17" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
@@ -1447,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1485,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1499,8 +1507,8 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
+      <c r="J19" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K19" s="5">
         <v>0</v>
@@ -1523,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1537,8 +1545,8 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
+      <c r="J20" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K20" s="5">
         <v>0</v>
@@ -1561,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1575,8 +1583,8 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
+      <c r="J21" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K21" s="5">
         <v>0</v>
@@ -1599,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1637,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1651,8 +1659,8 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="5">
-        <v>1</v>
+      <c r="J23" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K23" s="5">
         <v>0</v>
@@ -1675,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1689,8 +1697,8 @@
       <c r="I24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
+      <c r="J24" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K24" s="5">
         <v>0</v>
@@ -1713,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1751,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1789,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1827,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1865,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1879,8 +1887,8 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="5">
-        <v>0</v>
+      <c r="J29" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="K29" s="5">
         <v>1</v>
@@ -1903,7 +1911,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>54</v>
@@ -1929,42 +1937,47 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1972,116 +1985,139 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Proj1_control_signals.xlsx
+++ b/Documents/Proj1_control_signals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colto\Desktop\CprE381\CprE381\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F815F-0E98-4ADD-A7B6-D8421192D7BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D904104B-EDF6-4E82-932B-EB1FDE71D845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00D6E995-B1C9-9941-8016-EE5CE3EB0628}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
   <si>
     <t>Instruction</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equals </t>
+  </si>
+  <si>
+    <t>1 if BEQ, 0 if BNE</t>
   </si>
 </sst>
 </file>
@@ -785,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2FCD1-6A91-3E43-87BE-182EA48A4800}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -807,10 +813,11 @@
     <col min="9" max="9" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="32" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="1"/>
+    <col min="13" max="13" width="32" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -837,8 +844,9 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -869,8 +877,11 @@
       <c r="L2" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M2" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -901,11 +912,14 @@
       <c r="L3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -942,11 +956,14 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -983,9 +1000,12 @@
       <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,8 +1042,11 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="L7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,8 +1124,11 @@
       <c r="L8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1136,8 +1165,11 @@
       <c r="L9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1174,8 +1206,11 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1212,8 +1247,11 @@
       <c r="L11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1250,8 +1288,11 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1288,8 +1329,11 @@
       <c r="L13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1326,8 +1370,11 @@
       <c r="L14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1411,11 @@
       <c r="L15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1402,8 +1452,11 @@
       <c r="L16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1440,8 +1493,11 @@
       <c r="L17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1478,8 +1534,11 @@
       <c r="L18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1516,8 +1575,11 @@
       <c r="L19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1554,8 +1616,11 @@
       <c r="L20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1592,8 +1657,11 @@
       <c r="L21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1630,8 +1698,11 @@
       <c r="L22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1668,8 +1739,11 @@
       <c r="L23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1780,11 @@
       <c r="L24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1744,8 +1821,11 @@
       <c r="L25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1782,8 +1862,11 @@
       <c r="L26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1820,8 +1903,11 @@
       <c r="L27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -1858,8 +1944,11 @@
       <c r="L28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1896,8 +1985,11 @@
       <c r="L29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -1932,6 +2024,9 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2126,7 +2221,7 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="D1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
